--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_11_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2508042.84727495</v>
+        <v>-2510779.160296185</v>
       </c>
     </row>
     <row r="7">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -671,13 +671,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>142.5375742161619</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>232.1440029225483</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>50.98074812542897</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>173.9849366830172</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>170.6158497725428</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +896,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>225.713221640289</v>
       </c>
       <c r="F5" t="n">
-        <v>203.5758298573898</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1066,13 +1066,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>82.03115489592668</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>178.1080430672307</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>383.6109475676054</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247052</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>346.1644842495668</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>88.66279416383841</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>114.7053989184401</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7122866515498</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>107.4021082756239</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>18.70843787977262</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2011,16 +2011,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>6.228861054224361</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2062,7 +2062,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>240.6748679892918</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0.8253826161909023</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2479,10 +2479,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D25" t="n">
-        <v>124.3308255261726</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E25" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F25" t="n">
         <v>121.1364005308915</v>
@@ -2491,10 +2491,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H25" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I25" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S25" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T25" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U25" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V25" t="n">
         <v>227.8529958317883</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C28" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D28" t="n">
-        <v>124.3308255261736</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E28" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F28" t="n">
         <v>121.1364005308915</v>
@@ -2728,10 +2728,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H28" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S28" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T28" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V28" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W28" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X28" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="29">
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2947,16 +2947,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C31" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D31" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002292</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541835</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652594</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V31" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W31" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X31" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y31" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="32">
@@ -3041,10 +3041,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C34" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808158</v>
+        <v>42.09059921808203</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3250,7 +3250,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X34" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
         <v>194.3000058600551</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3317,7 +3317,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,7 +3439,7 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
         <v>56.98118882652579</v>
@@ -3469,22 +3469,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W37" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X37" t="n">
         <v>201.4250078969974</v>
@@ -3673,7 +3673,7 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.239490800229</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541841</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972053</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808197</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4189,7 +4189,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972042</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1785.600156360221</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="C2" t="n">
-        <v>1416.63763941981</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="D2" t="n">
-        <v>1058.371940813059</v>
+        <v>1567.784838233996</v>
       </c>
       <c r="E2" t="n">
-        <v>672.5836882148151</v>
+        <v>1181.996585635751</v>
       </c>
       <c r="F2" t="n">
-        <v>261.5977834252075</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362819</v>
@@ -4334,10 +4334,10 @@
         <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M2" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N2" t="n">
         <v>1656.671415230817</v>
@@ -4364,16 +4364,16 @@
         <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>2562.339328400155</v>
+        <v>2327.850436559198</v>
       </c>
       <c r="W2" t="n">
-        <v>2562.339328400155</v>
+        <v>2327.850436559198</v>
       </c>
       <c r="X2" t="n">
-        <v>2562.339328400155</v>
+        <v>1954.384678298117</v>
       </c>
       <c r="Y2" t="n">
-        <v>2172.199996424343</v>
+        <v>1954.384678298117</v>
       </c>
     </row>
     <row r="3">
@@ -4401,10 +4401,10 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057878</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500114</v>
@@ -4413,16 +4413,16 @@
         <v>298.3188265310614</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>932.4978103100999</v>
       </c>
       <c r="M3" t="n">
-        <v>1140.868925009994</v>
+        <v>1295.75982926932</v>
       </c>
       <c r="N3" t="n">
-        <v>1528.154053606939</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O3" t="n">
-        <v>1860.224488783101</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P3" t="n">
         <v>2422.685363568936</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1642.491563491407</v>
+        <v>770.9577966591559</v>
       </c>
       <c r="C4" t="n">
-        <v>1473.5553805635</v>
+        <v>602.021613731249</v>
       </c>
       <c r="D4" t="n">
-        <v>1323.438741151165</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E4" t="n">
-        <v>1175.525647568772</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F4" t="n">
-        <v>1028.635700070861</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G4" t="n">
-        <v>1028.635700070861</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H4" t="n">
-        <v>1028.635700070861</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>977.1399948936603</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>1002.609167878779</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>1174.299679627705</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>1449.530858294981</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>1750.112669035316</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
-        <v>2048.98193257148</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>2309.019775324692</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>2508.006390496681</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>2562.339328400155</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>2562.339328400155</v>
+        <v>1460.703759788621</v>
       </c>
       <c r="T4" t="n">
-        <v>2562.339328400155</v>
+        <v>1288.364517594134</v>
       </c>
       <c r="U4" t="n">
-        <v>2562.339328400155</v>
+        <v>1288.364517594134</v>
       </c>
       <c r="V4" t="n">
-        <v>2562.339328400155</v>
+        <v>1288.364517594134</v>
       </c>
       <c r="W4" t="n">
-        <v>2272.922158363194</v>
+        <v>998.9473475571732</v>
       </c>
       <c r="X4" t="n">
-        <v>2044.932607465177</v>
+        <v>770.9577966591559</v>
       </c>
       <c r="Y4" t="n">
-        <v>1824.140028321647</v>
+        <v>770.9577966591559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1785.600156360221</v>
+        <v>656.1154853312732</v>
       </c>
       <c r="C5" t="n">
-        <v>1416.63763941981</v>
+        <v>656.1154853312732</v>
       </c>
       <c r="D5" t="n">
-        <v>1058.371940813059</v>
+        <v>297.8497867245227</v>
       </c>
       <c r="E5" t="n">
-        <v>672.5836882148151</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F5" t="n">
-        <v>466.9515368437143</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362819</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872914</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4595,22 +4595,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400155</v>
+        <v>1768.949738926589</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400155</v>
+        <v>1416.181083656475</v>
       </c>
       <c r="X5" t="n">
-        <v>2562.339328400155</v>
+        <v>1042.715325395395</v>
       </c>
       <c r="Y5" t="n">
-        <v>2172.199996424343</v>
+        <v>1042.715325395395</v>
       </c>
     </row>
     <row r="6">
@@ -4641,22 +4641,22 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>423.148951518066</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L6" t="n">
-        <v>717.8525085495378</v>
+        <v>884.908532145821</v>
       </c>
       <c r="M6" t="n">
-        <v>1081.114527508758</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1468.399656105703</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O6" t="n">
         <v>1967.526114878148</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>940.7932119894607</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="C7" t="n">
-        <v>771.8570290615538</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="D7" t="n">
-        <v>621.7403896492181</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E7" t="n">
-        <v>473.8272960668249</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F7" t="n">
-        <v>473.8272960668249</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4747,28 +4747,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.862713590079</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1533.862713590079</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1451.002961169952</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U7" t="n">
-        <v>1451.002961169952</v>
+        <v>934.3483707353523</v>
       </c>
       <c r="V7" t="n">
-        <v>1451.002961169952</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="W7" t="n">
-        <v>1161.585791132991</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="X7" t="n">
-        <v>1161.585791132991</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="Y7" t="n">
-        <v>940.7932119894607</v>
+        <v>679.6638825294655</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1897.831592188879</v>
+        <v>1617.332751740275</v>
       </c>
       <c r="C8" t="n">
-        <v>1897.831592188879</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="D8" t="n">
-        <v>1539.565893582128</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E8" t="n">
-        <v>1153.777640983884</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>742.7917361942766</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345445</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4820,34 +4820,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764996</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723849</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400154</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="V8" t="n">
-        <v>1897.831592188879</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="W8" t="n">
-        <v>1897.831592188879</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="X8" t="n">
-        <v>1897.831592188879</v>
+        <v>2353.593687005979</v>
       </c>
       <c r="Y8" t="n">
-        <v>1897.831592188879</v>
+        <v>2003.932591804396</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380226</v>
+        <v>298.3188265310612</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625327</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1178.376567084329</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1565.661695681274</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q9" t="n">
         <v>2562.339328400155</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>600.6438724554071</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="C10" t="n">
-        <v>600.6438724554071</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="D10" t="n">
-        <v>600.6438724554071</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>452.7307788730139</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800309</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312193</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4975,10 +4975,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4990,22 +4990,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1546.887742131226</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1257.769404635064</v>
+        <v>1520.582080762941</v>
       </c>
       <c r="V10" t="n">
-        <v>1003.084916429177</v>
+        <v>1265.897592557054</v>
       </c>
       <c r="W10" t="n">
-        <v>1003.084916429177</v>
+        <v>976.4804225200937</v>
       </c>
       <c r="X10" t="n">
-        <v>1003.084916429177</v>
+        <v>748.4908716220764</v>
       </c>
       <c r="Y10" t="n">
-        <v>782.2923372856468</v>
+        <v>527.6982924785463</v>
       </c>
     </row>
     <row r="11">
@@ -5021,37 +5021,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5115,22 +5115,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1670.092171589158</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190825</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.8686257536381</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T13" t="n">
-        <v>2338.476105524075</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.400878868273</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>983.3403484614373</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>762.5477693179072</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,7 +5294,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5352,22 +5352,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1670.092171589158</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
         <v>1896.176478190825</v>
@@ -5413,19 +5413,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D16" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E16" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>194.8007783998286</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5552,10 +5552,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>810.0653816078141</v>
+        <v>1022.872235754091</v>
       </c>
       <c r="C19" t="n">
-        <v>641.1291986799072</v>
+        <v>853.936052826184</v>
       </c>
       <c r="D19" t="n">
-        <v>491.0125592675714</v>
+        <v>703.8194134138482</v>
       </c>
       <c r="E19" t="n">
-        <v>343.0994656851783</v>
+        <v>555.9063198314551</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>409.0163723335447</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>241.8202730484247</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>100.1084418906227</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603201</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947399</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741512</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W19" t="n">
-        <v>1440.495976479601</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="X19" t="n">
-        <v>1212.506425581584</v>
+        <v>1425.313279727861</v>
       </c>
       <c r="Y19" t="n">
-        <v>991.7138464380538</v>
+        <v>1204.520700584331</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,7 +5765,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>261.8464821474262</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>94.65038286230612</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C25" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D25" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E25" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F25" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G25" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H25" t="n">
         <v>151.373419438402</v>
@@ -6151,7 +6151,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L25" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M25" t="n">
         <v>1344.317444979286</v>
@@ -6160,10 +6160,10 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O25" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P25" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q25" t="n">
         <v>2639.297491717215</v>
@@ -6178,16 +6178,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W25" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X25" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y25" t="n">
         <v>1084.076049400516</v>
@@ -6206,37 +6206,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,28 +6300,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319331</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656825</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E28" t="n">
         <v>533.5814564942654</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H28" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
@@ -6388,7 +6388,7 @@
         <v>483.825546038073</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6406,10 +6406,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
@@ -6418,7 +6418,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V28" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W28" t="n">
         <v>1483.798285518751</v>
@@ -6455,25 +6455,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6482,13 +6482,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656812</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150018</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942649</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580108</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345469</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384021</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K31" t="n">
         <v>483.8255460380728</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,10 +6643,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6658,13 +6658,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X31" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y31" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="32">
@@ -6689,7 +6689,7 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6786,16 +6786,16 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1702.079034721979</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6859,7 +6859,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
         <v>898.2659412311323</v>
@@ -6883,7 +6883,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,16 +6932,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014779</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7023,19 +7023,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.957531531932</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656814</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7126,19 +7126,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594054</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7172,7 +7172,7 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075813</v>
@@ -7260,19 +7260,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7330,13 +7330,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7363,16 +7363,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7397,7 +7397,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,28 +7591,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7728,22 +7728,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>542.9134462654469</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1140.291933891999</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C46" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -8061,19 +8061,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
-        <v>186.4490126143845</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>162.0073097921335</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>30.36925650589404</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8307,7 +8307,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>168.7434581780643</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8529,31 +8529,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878349</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>224.3355197601776</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>305.1601501039157</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154992</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -22547,10 +22547,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22559,13 +22559,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>269.0101285567921</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>95.60825554758662</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>49.16032727974582</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22756,13 +22756,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>50.13284622466908</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>72.11969353038747</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>110.0033420516644</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>75.03697526434117</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>45.84813034729925</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -26314,13 +26314,13 @@
         <v>15883.07632636138</v>
       </c>
       <c r="C2" t="n">
+        <v>20526.0442466071</v>
+      </c>
+      <c r="D2" t="n">
         <v>20526.04424660709</v>
       </c>
-      <c r="D2" t="n">
-        <v>20526.0442466071</v>
-      </c>
       <c r="E2" t="n">
-        <v>20178.66499225016</v>
+        <v>20178.66499225014</v>
       </c>
       <c r="F2" t="n">
         <v>20178.66499225015</v>
@@ -26332,16 +26332,16 @@
         <v>20178.66499225015</v>
       </c>
       <c r="I2" t="n">
+        <v>20526.0442466071</v>
+      </c>
+      <c r="J2" t="n">
         <v>20526.04424660709</v>
-      </c>
-      <c r="J2" t="n">
-        <v>20526.0442466071</v>
       </c>
       <c r="K2" t="n">
         <v>20526.04424660709</v>
       </c>
       <c r="L2" t="n">
-        <v>20526.0442466071</v>
+        <v>20526.04424660709</v>
       </c>
       <c r="M2" t="n">
         <v>20526.0442466071</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245458</v>
+        <v>507485.4416245461</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,7 +26384,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="J3" t="n">
         <v>167605.1778099825</v>
@@ -26393,7 +26393,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="M3" t="n">
         <v>132607.2937289267</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27111.73467492338</v>
+        <v>27111.73467492341</v>
       </c>
       <c r="C4" t="n">
         <v>133113.8635467443</v>
@@ -26427,16 +26427,16 @@
         <v>7507.368461719667</v>
       </c>
       <c r="F4" t="n">
-        <v>7507.36846171969</v>
+        <v>7507.36846171968</v>
       </c>
       <c r="G4" t="n">
         <v>7507.368461719667</v>
       </c>
       <c r="H4" t="n">
-        <v>7507.368461719667</v>
+        <v>7507.368461719676</v>
       </c>
       <c r="I4" t="n">
-        <v>15498.22772481314</v>
+        <v>15498.22772481313</v>
       </c>
       <c r="J4" t="n">
         <v>15498.22772481315</v>
@@ -26445,10 +26445,10 @@
         <v>15498.22772481315</v>
       </c>
       <c r="L4" t="n">
-        <v>15498.22772481315</v>
+        <v>15498.22772481316</v>
       </c>
       <c r="M4" t="n">
-        <v>15498.22772481317</v>
+        <v>15498.22772481314</v>
       </c>
       <c r="N4" t="n">
         <v>15498.22772481314</v>
@@ -26457,7 +26457,7 @@
         <v>15498.22772481314</v>
       </c>
       <c r="P4" t="n">
-        <v>15498.22772481314</v>
+        <v>15498.22772481313</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26519,37 +26519,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1218918.214364326</v>
+        <v>-1219382.511156351</v>
       </c>
       <c r="C6" t="n">
-        <v>-205525.591739982</v>
+        <v>-205525.5917399819</v>
       </c>
       <c r="D6" t="n">
         <v>-205525.591739982</v>
       </c>
       <c r="E6" t="n">
-        <v>-595936.6749179225</v>
+        <v>-595971.4128433584</v>
       </c>
       <c r="F6" t="n">
-        <v>-88451.23329337666</v>
+        <v>-88485.97121881234</v>
       </c>
       <c r="G6" t="n">
-        <v>-88451.23329337663</v>
+        <v>-88485.97121881232</v>
       </c>
       <c r="H6" t="n">
-        <v>-88451.23329337663</v>
+        <v>-88485.97121881232</v>
       </c>
       <c r="I6" t="n">
         <v>-117564.0173257532</v>
       </c>
       <c r="J6" t="n">
-        <v>-265741.4771421039</v>
+        <v>-265741.477142104</v>
       </c>
       <c r="K6" t="n">
-        <v>-98136.29933212146</v>
+        <v>-98136.29933212145</v>
       </c>
       <c r="L6" t="n">
-        <v>-98136.2993321214</v>
+        <v>-98136.2993321215</v>
       </c>
       <c r="M6" t="n">
         <v>-230743.5930610482</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="J2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="K2" t="n">
+        <v>24.28464749203969</v>
+      </c>
+      <c r="L2" t="n">
         <v>24.28464749203973</v>
       </c>
-      <c r="J2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="K2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="L2" t="n">
-        <v>24.28464749203969</v>
-      </c>
       <c r="M2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
         <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26738,10 +26738,10 @@
         <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.064892117539</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26935,13 +26935,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>5.329070518200751e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241345</v>
+        <v>433.9106082241348</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996096</v>
+        <v>532.1234559996097</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27552,10 +27552,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>4.65551979872577</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,16 +27585,16 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>20.67752367872026</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>156.2171484319728</v>
       </c>
       <c r="F5" t="n">
-        <v>203.3002158843217</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27786,13 +27786,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>138.7175411012853</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>108.1191110539699</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>27.93675520534862</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,7 +27910,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>40.0734544064868</v>
       </c>
     </row>
     <row r="9">
@@ -28026,10 +28026,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,19 +28062,19 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>132.0859018333735</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>171.5217552027605</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28105,7 +28105,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y25" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="26">
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203975</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="29">
@@ -29563,7 +29563,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="32">
@@ -29761,10 +29761,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203974</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31276,7 +31276,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H5" t="n">
         <v>38.45624955336179</v>
@@ -31291,16 +31291,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
         <v>539.9786897190645</v>
@@ -31312,7 +31312,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
@@ -31361,7 +31361,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31373,16 +31373,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31440,7 +31440,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31467,7 +31467,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
@@ -31476,7 +31476,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,46 +31516,46 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336177</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342222</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745095</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744846</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347159</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178437</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040587</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.538811676207</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405673</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378624</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654579</v>
+        <v>1.684379313654578</v>
       </c>
       <c r="H10" t="n">
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31686,16 +31686,16 @@
         <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227907</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849626</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759584</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.19689343106956</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31847,13 +31847,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>338.1920576279222</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>370.9642309107746</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
@@ -32072,7 +32072,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32087,10 +32087,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>357.9244589488886</v>
       </c>
       <c r="O15" t="n">
-        <v>370.9642309107746</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214698</v>
@@ -32230,7 +32230,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32321,10 +32321,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N18" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,13 +32558,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N21" t="n">
-        <v>405.6377363145776</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
@@ -32573,7 +32573,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,13 +32795,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>405.6377363145776</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,19 +33032,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>340.4395077511235</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33269,19 +33269,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>340.4395077511235</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33506,19 +33506,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>338.6542681503486</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33892,10 +33892,10 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33980,22 +33980,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34220,13 +34220,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34448,10 +34448,10 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>438.5310889592611</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,13 +34460,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34781,19 +34781,19 @@
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="M3" t="n">
-        <v>553.3803448964251</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>553.2044093850075</v>
       </c>
       <c r="O3" t="n">
         <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308546</v>
@@ -34936,19 +34936,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
         <v>308.745693963795</v>
@@ -34957,7 +34957,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>328.0496171437443</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O6" t="n">
-        <v>504.1681401741873</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
@@ -35036,7 +35036,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,13 +35091,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
         <v>303.6179906468033</v>
@@ -35106,13 +35106,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407336</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376313</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939898</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091737</v>
       </c>
       <c r="K9" t="n">
-        <v>379.9148430313197</v>
+        <v>186.5874962434847</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>591.266852042218</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928738</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000386</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870591</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468032</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818071</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35495,13 +35495,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>196.0580237059039</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>228.3679864663302</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
@@ -35583,7 +35583,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066232</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35644,7 +35644,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K14" t="n">
         <v>479.454324036777</v>
@@ -35720,7 +35720,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35735,10 +35735,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>226.5827468655553</v>
       </c>
       <c r="O15" t="n">
-        <v>228.3679864663302</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071395</v>
@@ -35878,7 +35878,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35969,10 +35969,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N18" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,13 +36206,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N21" t="n">
-        <v>274.2960242312443</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
@@ -36221,7 +36221,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,13 +36443,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>274.2960242312443</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36534,7 +36534,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q25" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,19 +36680,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>197.843263306679</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36753,25 +36753,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P28" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q28" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36917,19 +36917,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>197.843263306679</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36990,25 +36990,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K31" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L31" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M31" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N31" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O31" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P31" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37154,19 +37154,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>196.0580237059041</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37540,10 +37540,10 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37628,22 +37628,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37868,13 +37868,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,16 +37938,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O43" t="n">
         <v>397.5465471980851</v>
@@ -38096,10 +38096,10 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>300.6896499849021</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,13 +38108,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
